--- a/Trucs_utiles/Gant_2019.xlsx
+++ b/Trucs_utiles/Gant_2019.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_06B8F8DD8B1AC463DFFF4B870004B63EB6D6797D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -88,19 +87,7 @@
 Pour ajouter des éléments, insérez des lignes au-dessus de celle-ci.</t>
   </si>
   <si>
-    <t>TITRE DU PROJET</t>
-  </si>
-  <si>
-    <t>Nom de la société</t>
-  </si>
-  <si>
-    <t>Responsable du projet</t>
-  </si>
-  <si>
     <t>Description du jalon</t>
-  </si>
-  <si>
-    <t>Titre 1</t>
   </si>
   <si>
     <t>Pour ajouter des données, insérez des lignes AU-DESSUS de celle-ci.</t>
@@ -191,11 +178,17 @@
   <si>
     <t>Regler les problemes Git</t>
   </si>
+  <si>
+    <t>Polytech Marseille</t>
+  </si>
+  <si>
+    <t>Projet SE3A : Amélioration du Robot MT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1177,7 +1170,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1199,7 +1192,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1398,12 +1391,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -1575,8 +1568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F36" totalsRowShown="0">
-  <autoFilter ref="B6:F36" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F36" totalsRowShown="0">
+  <autoFilter ref="B6:F36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1584,11 +1577,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours" dataDxfId="0">
+    <tableColumn id="1" name="Description du jalon"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(LEN([1]!Tâches[[#This Row],[Date de début]])=0,"",(INT([1]!Tâches[[#This Row],[Date de fin]])-INT([1]!Tâches[[#This Row],[Date de début]]))-(INT([1]!Tâches[[#This Row],[Date de début]])-INT([1]!Tâches[[#This Row],[Date de début]]))+1),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1863,35 +1856,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="23.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.59765625" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.59765625" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1899,20 +1892,20 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="61">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
-        <v>43581</v>
+        <v>43567</v>
       </c>
       <c r="F2" s="62"/>
       <c r="I2" s="37"/>
@@ -1922,15 +1915,13 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="59" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="40">
@@ -1943,12 +1934,12 @@
       <c r="L3" s="48"/>
       <c r="M3" s="47"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="41">
@@ -1970,7 +1961,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="str">
         <f ca="1">IF(TEXT(O5,"mmmm")=H4,"",TEXT(O5,"mmmm"))</f>
-        <v>mai</v>
+        <v/>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -1990,7 +1981,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v/>
+        <v>mai</v>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
@@ -2020,7 +2011,7 @@
       <c r="AW4" s="17"/>
       <c r="AX4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
-        <v>juin</v>
+        <v/>
       </c>
       <c r="AY4" s="17"/>
       <c r="AZ4" s="17"/>
@@ -2039,7 +2030,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2047,247 +2038,247 @@
       <c r="G5" s="36"/>
       <c r="H5" s="50">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>43581</v>
+        <v>43567</v>
       </c>
       <c r="I5" s="51">
         <f ca="1">H5+1</f>
-        <v>43582</v>
+        <v>43568</v>
       </c>
       <c r="J5" s="52">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>43583</v>
+        <v>43569</v>
       </c>
       <c r="K5" s="52">
         <f ca="1">J5+1</f>
-        <v>43584</v>
+        <v>43570</v>
       </c>
       <c r="L5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43585</v>
+        <v>43571</v>
       </c>
       <c r="M5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43586</v>
+        <v>43572</v>
       </c>
       <c r="N5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43587</v>
+        <v>43573</v>
       </c>
       <c r="O5" s="52">
         <f ca="1">N5+1</f>
-        <v>43588</v>
+        <v>43574</v>
       </c>
       <c r="P5" s="52">
         <f ca="1">O5+1</f>
-        <v>43589</v>
+        <v>43575</v>
       </c>
       <c r="Q5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43590</v>
+        <v>43576</v>
       </c>
       <c r="R5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43591</v>
+        <v>43577</v>
       </c>
       <c r="S5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43592</v>
+        <v>43578</v>
       </c>
       <c r="T5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43593</v>
+        <v>43579</v>
       </c>
       <c r="U5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43594</v>
+        <v>43580</v>
       </c>
       <c r="V5" s="52">
         <f ca="1">U5+1</f>
-        <v>43595</v>
+        <v>43581</v>
       </c>
       <c r="W5" s="52">
         <f ca="1">V5+1</f>
-        <v>43596</v>
+        <v>43582</v>
       </c>
       <c r="X5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43597</v>
+        <v>43583</v>
       </c>
       <c r="Y5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43598</v>
+        <v>43584</v>
       </c>
       <c r="Z5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43599</v>
+        <v>43585</v>
       </c>
       <c r="AA5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43600</v>
+        <v>43586</v>
       </c>
       <c r="AB5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43601</v>
+        <v>43587</v>
       </c>
       <c r="AC5" s="52">
         <f ca="1">AB5+1</f>
-        <v>43602</v>
+        <v>43588</v>
       </c>
       <c r="AD5" s="52">
         <f ca="1">AC5+1</f>
-        <v>43603</v>
+        <v>43589</v>
       </c>
       <c r="AE5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43604</v>
+        <v>43590</v>
       </c>
       <c r="AF5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43605</v>
+        <v>43591</v>
       </c>
       <c r="AG5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43606</v>
+        <v>43592</v>
       </c>
       <c r="AH5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43607</v>
+        <v>43593</v>
       </c>
       <c r="AI5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43608</v>
+        <v>43594</v>
       </c>
       <c r="AJ5" s="52">
         <f ca="1">AI5+1</f>
-        <v>43609</v>
+        <v>43595</v>
       </c>
       <c r="AK5" s="52">
         <f ca="1">AJ5+1</f>
-        <v>43610</v>
+        <v>43596</v>
       </c>
       <c r="AL5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43611</v>
+        <v>43597</v>
       </c>
       <c r="AM5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43612</v>
+        <v>43598</v>
       </c>
       <c r="AN5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43613</v>
+        <v>43599</v>
       </c>
       <c r="AO5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43614</v>
+        <v>43600</v>
       </c>
       <c r="AP5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43615</v>
+        <v>43601</v>
       </c>
       <c r="AQ5" s="52">
         <f ca="1">AP5+1</f>
-        <v>43616</v>
+        <v>43602</v>
       </c>
       <c r="AR5" s="52">
         <f ca="1">AQ5+1</f>
-        <v>43617</v>
+        <v>43603</v>
       </c>
       <c r="AS5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43618</v>
+        <v>43604</v>
       </c>
       <c r="AT5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43619</v>
+        <v>43605</v>
       </c>
       <c r="AU5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43620</v>
+        <v>43606</v>
       </c>
       <c r="AV5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43621</v>
+        <v>43607</v>
       </c>
       <c r="AW5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>43622</v>
+        <v>43608</v>
       </c>
       <c r="AX5" s="52">
         <f ca="1">AW5+1</f>
-        <v>43623</v>
+        <v>43609</v>
       </c>
       <c r="AY5" s="52">
         <f ca="1">AX5+1</f>
-        <v>43624</v>
+        <v>43610</v>
       </c>
       <c r="AZ5" s="52">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>43625</v>
+        <v>43611</v>
       </c>
       <c r="BA5" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>43626</v>
+        <v>43612</v>
       </c>
       <c r="BB5" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>43627</v>
+        <v>43613</v>
       </c>
       <c r="BC5" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>43628</v>
+        <v>43614</v>
       </c>
       <c r="BD5" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>43629</v>
+        <v>43615</v>
       </c>
       <c r="BE5" s="52">
         <f ca="1">BD5+1</f>
-        <v>43630</v>
+        <v>43616</v>
       </c>
       <c r="BF5" s="52">
         <f ca="1">BE5+1</f>
-        <v>43631</v>
+        <v>43617</v>
       </c>
       <c r="BG5" s="52">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>43632</v>
+        <v>43618</v>
       </c>
       <c r="BH5" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>43633</v>
+        <v>43619</v>
       </c>
       <c r="BI5" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>43634</v>
+        <v>43620</v>
       </c>
       <c r="BJ5" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>43635</v>
+        <v>43621</v>
       </c>
       <c r="BK5" s="53">
         <f t="shared" ca="1" si="2"/>
-        <v>43636</v>
+        <v>43622</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="43" t="str">
@@ -2515,7 +2506,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2584,13 +2575,11 @@
       <c r="BJ7" s="42"/>
       <c r="BK7" s="42"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="33"/>
       <c r="C8" s="27"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
@@ -2821,18 +2810,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="55">
-        <f ca="1">TODAY()</f>
-        <v>43581</v>
+        <v>43567</v>
       </c>
       <c r="F9" s="57">
         <v>1</v>
@@ -3063,10 +3051,10 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="24"/>
@@ -3133,18 +3121,17 @@
       <c r="BJ10" s="29"/>
       <c r="BK10" s="29"/>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="55">
-        <f ca="1">TODAY()</f>
-        <v>43581</v>
+        <v>43567</v>
       </c>
       <c r="F11" s="57">
         <v>8</v>
@@ -3375,18 +3362,17 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="55">
-        <f ca="1">TODAY()</f>
-        <v>43581</v>
+        <v>43567</v>
       </c>
       <c r="F12" s="57">
         <v>8</v>
@@ -3617,13 +3603,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="55">
@@ -3858,13 +3844,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="55">
@@ -4099,13 +4085,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="56">
@@ -4172,13 +4158,13 @@
       <c r="BJ15" s="29"/>
       <c r="BK15" s="29"/>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="55">
@@ -4245,13 +4231,13 @@
       <c r="BJ16" s="29"/>
       <c r="BK16" s="29"/>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="54" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="55">
@@ -4318,7 +4304,7 @@
       <c r="BJ17" s="29"/>
       <c r="BK17" s="29"/>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="33"/>
       <c r="C18" s="27"/>
@@ -4551,7 +4537,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="31"/>
       <c r="C19" s="27"/>
@@ -4784,7 +4770,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="31"/>
       <c r="C20" s="27"/>
@@ -5017,7 +5003,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="31"/>
       <c r="C21" s="27"/>
@@ -5250,7 +5236,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="31"/>
       <c r="C22" s="27"/>
@@ -5483,7 +5469,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="31"/>
       <c r="C23" s="27"/>
@@ -5716,7 +5702,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="33"/>
       <c r="C24" s="27"/>
@@ -5949,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="31"/>
       <c r="C25" s="27"/>
@@ -6182,7 +6168,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="31"/>
       <c r="C26" s="27"/>
@@ -6415,7 +6401,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="31"/>
       <c r="C27" s="27"/>
@@ -6648,7 +6634,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="31"/>
       <c r="C28" s="27"/>
@@ -6881,7 +6867,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="31"/>
       <c r="C29" s="27"/>
@@ -7114,7 +7100,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="33"/>
       <c r="C30" s="27"/>
@@ -7347,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
       <c r="C31" s="27"/>
@@ -7580,7 +7566,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="31"/>
       <c r="C32" s="27"/>
@@ -7813,7 +7799,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="31"/>
       <c r="C33" s="27"/>
@@ -8046,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="31"/>
       <c r="C34" s="27"/>
@@ -8279,7 +8265,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="31"/>
       <c r="C35" s="27"/>
@@ -8512,7 +8498,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
@@ -8747,12 +8733,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -8816,12 +8802,12 @@
       <c r="BJ37" s="28"/>
       <c r="BK37" s="28"/>
     </row>
-    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="F38" s="14"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
     </row>
   </sheetData>
@@ -8860,14 +8846,14 @@
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -8967,35 +8953,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1328125" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
